--- a/Data/VPS_Web_TestData_JP_1.xlsx
+++ b/Data/VPS_Web_TestData_JP_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Text here.</t>
+  </si>
+  <si>
+    <t>ContextFooter1</t>
+  </si>
+  <si>
+    <t>ContextFooter2</t>
+  </si>
+  <si>
+    <t>Maybe a Contextual FAQ</t>
+  </si>
+  <si>
+    <t>Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Suspendisse vestibulum elit leo, laoreet ornare sem commodo eu. Proin maximus eu neque id ultricies. Phasellus commodo nisi vulputate, facilisis nisl non, facilisis odio. Nullam id tortor nec dolor blandit tristique ut ac mi. Suspendisse luctus nibh ac neque tempor pharetra. Sed lobortis tempus sapien, vitae eleifend ante lobortis a.</t>
   </si>
 </sst>
 </file>
@@ -193,11 +205,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,26 +507,27 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="49.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,62 +537,68 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -583,58 +608,64 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
     </row>
